--- a/PFOA inhalation Rat/Data/PFOA_male_blood_IV_kim_2016.xlsx
+++ b/PFOA inhalation Rat/Data/PFOA_male_blood_IV_kim_2016.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpjio\Documents\GitHub\PFAS_PBK_models\PFOA inhalation Rat\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptsir\Documents\GitHub\PFAS_PBK_models\PFOA inhalation Rat\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A997A37F-3B0F-4965-828F-615B691C6D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -62,8 +61,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,7 +99,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -113,6 +112,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -448,22 +450,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
-    <col min="3" max="3" width="33.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="33.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -481,12 +483,13 @@
       </c>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4">
-        <v>0</v>
+      <c r="B2" s="6">
+        <f>5/60</f>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C2" s="4">
         <v>8.92</v>
@@ -499,11 +502,11 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="6">
         <v>6</v>
       </c>
       <c r="C3" s="4">
@@ -517,11 +520,11 @@
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="6">
         <v>12</v>
       </c>
       <c r="C4" s="4">
@@ -535,11 +538,11 @@
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="6">
         <v>24</v>
       </c>
       <c r="C5" s="4">
@@ -553,11 +556,11 @@
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="6">
         <v>48</v>
       </c>
       <c r="C6" s="4">
@@ -571,11 +574,11 @@
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="6">
         <v>96</v>
       </c>
       <c r="C7" s="4">
@@ -589,11 +592,11 @@
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="6">
         <v>144</v>
       </c>
       <c r="C8" s="4">
@@ -607,11 +610,11 @@
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="6">
         <v>192</v>
       </c>
       <c r="C9" s="4">
@@ -625,11 +628,11 @@
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="6">
         <v>240</v>
       </c>
       <c r="C10" s="4">
@@ -643,11 +646,11 @@
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="6">
         <v>288</v>
       </c>
       <c r="C11" s="4">
@@ -661,7 +664,7 @@
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -669,7 +672,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
@@ -677,35 +680,36 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3">
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3">
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3">
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3">
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PFOA inhalation Rat/Data/PFOA_male_blood_IV_kim_2016.xlsx
+++ b/PFOA inhalation Rat/Data/PFOA_male_blood_IV_kim_2016.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptsir\Documents\GitHub\PFAS_PBK_models\PFOA inhalation Rat\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpjio\Documents\GitHub\PFAS_PBK_models\PFOA inhalation Rat\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D552E513-2BB9-450F-A29B-547E6BD96AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -61,8 +62,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,22 +451,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="33.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.75" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -483,7 +484,7 @@
       </c>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -502,7 +503,7 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -520,7 +521,7 @@
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -538,7 +539,7 @@
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -556,7 +557,7 @@
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -574,7 +575,7 @@
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -592,7 +593,7 @@
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -610,7 +611,7 @@
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
@@ -628,7 +629,7 @@
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -646,7 +647,7 @@
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
@@ -664,7 +665,7 @@
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -672,7 +673,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
@@ -680,31 +681,31 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
     </row>

--- a/PFOA inhalation Rat/Data/PFOA_male_blood_IV_kim_2016.xlsx
+++ b/PFOA inhalation Rat/Data/PFOA_male_blood_IV_kim_2016.xlsx
@@ -1,35 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpjio\Documents\GitHub\PFAS_PBK_models\PFOA inhalation Rat\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\PFAS_PBK_models\PFOA inhalation Rat\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D552E513-2BB9-450F-A29B-547E6BD96AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE34B558-EA63-4DFD-ABBA-65C3792652FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2900" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -50,13 +39,13 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Blood</t>
-  </si>
-  <si>
     <t>iv</t>
   </si>
   <si>
     <t>Time_hours</t>
+  </si>
+  <si>
+    <t>Plasma</t>
   </si>
 </sst>
 </file>
@@ -120,7 +109,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -455,23 +444,23 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="33.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" customWidth="1"/>
+    <col min="3" max="3" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -484,9 +473,9 @@
       </c>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="6">
         <f>5/60</f>
@@ -499,13 +488,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="6">
         <v>6</v>
@@ -517,13 +506,13 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="6">
         <v>12</v>
@@ -535,13 +524,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" s="6">
         <v>24</v>
@@ -553,13 +542,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="6">
         <v>48</v>
@@ -571,13 +560,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" s="6">
         <v>96</v>
@@ -589,13 +578,13 @@
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8" s="6">
         <v>144</v>
@@ -607,13 +596,13 @@
         <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9" s="6">
         <v>192</v>
@@ -625,13 +614,13 @@
         <v>1</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10" s="6">
         <v>240</v>
@@ -643,13 +632,13 @@
         <v>1</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B11" s="6">
         <v>288</v>
@@ -661,11 +650,11 @@
         <v>1</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -673,7 +662,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
@@ -681,31 +670,31 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
     </row>
